--- a/experiment/途中データ集計（4人分）.xlsx
+++ b/experiment/途中データ集計（4人分）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomoki\Documents\Titech\Masuhara_Lab\DataStructureVisualization\layout_experiment\experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oguto\Documents\Titech\Masuhara_Lab\DataStructureVisualization\layout_experiment\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9066"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,26 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>B+tree</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>環境</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グラフオブジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スキップリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>平衡二分木Kanon</t>
     <rPh sb="0" eb="2">
@@ -118,6 +99,48 @@
   </si>
   <si>
     <t>tanabe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B+treeKanon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B+treeOgushi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境Kanon</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境Ogushi</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフオブジェクトKanon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフオブジェクトOgushi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキップリストKanon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキップリストOgushi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ave.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -448,188 +471,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="9" width="16.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" customWidth="1"/>
+    <col min="15" max="15" width="12.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2">
+        <v>364</v>
+      </c>
+      <c r="D2">
+        <v>367</v>
+      </c>
+      <c r="G2">
+        <v>494</v>
+      </c>
+      <c r="H2">
+        <v>613</v>
+      </c>
+      <c r="J2">
+        <v>224</v>
+      </c>
+      <c r="K2">
+        <v>122</v>
+      </c>
+      <c r="L2">
+        <v>316</v>
+      </c>
+      <c r="M2">
+        <v>92</v>
+      </c>
+      <c r="N2">
+        <v>37</v>
+      </c>
+      <c r="O2">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>364</v>
-      </c>
-      <c r="C2">
-        <v>367</v>
-      </c>
-      <c r="D2">
-        <v>494</v>
-      </c>
-      <c r="E2">
-        <v>613</v>
-      </c>
-      <c r="F2">
-        <v>224</v>
-      </c>
-      <c r="G2">
-        <v>122</v>
-      </c>
-      <c r="H2">
-        <v>316</v>
-      </c>
-      <c r="I2">
-        <v>92</v>
-      </c>
-      <c r="J2">
-        <v>37</v>
-      </c>
-      <c r="K2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
       </c>
       <c r="B3">
         <v>862</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>235</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>75</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>478</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>67</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>74</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>134</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>60</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>53</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>486</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>203</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>168</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>761</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>242</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>89</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>165</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>102</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>18</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>330</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>246</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>295</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>244</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <v>80</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>134</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>81</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>35</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>